--- a/medicine/Enfance/Joanna_Cole/Joanna_Cole.xlsx
+++ b/medicine/Enfance/Joanna_Cole/Joanna_Cole.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joanna Cole (11 août 1944, Newark (New Jersey) - 12 juillet 2020, Sioux City) est une auteure de littérature jeunesse américaine, principalement connue pour sa série d'ouvrages Le Bus magique qui a donné naissance à la série animée du même nom.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après avoir exercé plusieurs activités (enseignante, bibliothécaire, employée de Newsweek), Joanna Coles publie en 1971 son premier titre : Cockroaches[1],[2].
-En 1986 elle publie le premier volume de la série du bus magique :  The magic school bus at the waterworks (traduit en français sous le titre L'autobus magique et la classe à l'eau). La série compte au total 13 titres et a été diffusée à plus de 93 millions d'exemplaires à travers le monde d'après l'éditeur Scholastic[3].
-Elle meurt à 75 ans le 12 juillet 2020 d'une fibrose pulmonaire idiopathique[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après avoir exercé plusieurs activités (enseignante, bibliothécaire, employée de Newsweek), Joanna Coles publie en 1971 son premier titre : Cockroaches,.
+En 1986 elle publie le premier volume de la série du bus magique :  The magic school bus at the waterworks (traduit en français sous le titre L'autobus magique et la classe à l'eau). La série compte au total 13 titres et a été diffusée à plus de 93 millions d'exemplaires à travers le monde d'après l'éditeur Scholastic.
+Elle meurt à 75 ans le 12 juillet 2020 d'une fibrose pulmonaire idiopathique.
 </t>
         </is>
       </c>
